--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -371,10 +371,16 @@
     <t>Dati della trascrizione</t>
   </si>
   <si>
+    <t>Nuovo nome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
+  </si>
+  <si>
     <t>Nuovo cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
   </si>
   <si>
     <t>nuovoCognome</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2310,7 +2316,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>120</v>
@@ -2359,6 +2365,26 @@
         <v>125</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.2</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -365,7 +365,19 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.autoritaMittente</t>
+    <t>evento.trascrizioneNascita.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -454,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -464,7 +476,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2233,7 +2245,7 @@
         <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
@@ -2242,7 +2254,7 @@
         <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2253,7 +2265,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
@@ -2262,7 +2274,7 @@
         <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2273,16 +2285,16 @@
         <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2293,16 +2305,16 @@
         <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2310,19 +2322,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2330,19 +2342,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2350,19 +2362,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2370,21 +2382,101 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -478,6 +484,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,85 +506,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -599,1885 +621,2170 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -484,7 +484,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.3</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.3</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -622,2169 +625,2169 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,205 +98,160 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -475,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -487,7 +442,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -728,7 +683,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -740,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -748,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -757,13 +712,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -771,22 +726,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -794,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -803,13 +758,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -826,13 +781,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -840,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -849,13 +804,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -863,22 +818,22 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -886,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -895,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -909,7 +864,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -918,13 +873,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -941,13 +896,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -955,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -964,13 +919,13 @@
         <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -978,22 +933,22 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -1001,22 +956,22 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -1024,22 +979,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1002,22 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1070,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1079,13 +1034,13 @@
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -1093,7 +1048,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1102,13 +1057,13 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1116,7 +1071,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1125,13 +1080,13 @@
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1139,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1148,13 +1103,13 @@
         <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1162,591 +1117,591 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1712,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1735,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1758,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1781,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1804,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1827,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1850,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1873,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1896,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1919,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1942,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2010,19 +1965,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2033,19 +1988,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2011,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2034,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2057,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2080,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2103,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2126,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2149,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2172,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2195,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2218,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2241,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2264,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2287,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2310,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2333,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2356,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2379,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2402,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2425,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2448,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2471,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2494,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2517,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2540,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2563,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2586,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2609,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2632,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2655,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2678,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2701,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2769,24 +2724,70 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -2178,7 +2178,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>79</v>
@@ -2316,7 +2316,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>82</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -98,154 +98,148 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.madre</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -442,7 +436,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -695,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -703,7 +697,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -712,13 +706,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -726,7 +720,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -735,13 +729,13 @@
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -749,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -758,13 +752,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -781,13 +775,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -795,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -804,13 +798,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -818,7 +812,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -827,13 +821,13 @@
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -841,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -850,13 +844,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -864,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -873,13 +867,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -887,7 +881,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -896,13 +890,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -910,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -919,13 +913,13 @@
         <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -933,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -942,13 +936,13 @@
         <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -956,7 +950,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -965,13 +959,13 @@
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -979,7 +973,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -988,13 +982,13 @@
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -1002,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1011,13 +1005,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1025,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1034,13 +1028,13 @@
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -1048,7 +1042,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1057,13 +1051,13 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1071,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1080,13 +1074,13 @@
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1094,7 +1088,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1103,13 +1097,13 @@
         <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1117,7 +1111,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1126,13 +1120,13 @@
         <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1140,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -1149,13 +1143,13 @@
         <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -1163,7 +1157,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1172,18 +1166,18 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
@@ -1192,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>31</v>
@@ -1201,495 +1195,495 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
@@ -1698,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>31</v>
@@ -1712,19 +1706,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1729,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1752,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1775,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1798,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1821,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1844,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1867,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1890,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1913,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1936,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1959,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1982,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2005,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2028,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2051,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2074,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2097,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2120,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2143,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2166,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2189,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2212,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2235,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2258,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2281,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2304,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2327,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2350,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2373,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2396,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2419,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2442,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2465,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2488,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2511,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2534,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2557,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2580,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2603,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2626,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2649,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2672,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2695,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2718,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2741,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2764,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -270,6 +276,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -424,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1114,7 +1123,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1137,7 +1146,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1177,19 +1186,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1200,19 +1209,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1223,19 +1232,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1246,19 +1255,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1269,19 +1278,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1292,19 +1301,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1315,19 +1324,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1338,19 +1347,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1361,19 +1370,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1393,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1416,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1439,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1462,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1485,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1508,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1531,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1554,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1577,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1600,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1623,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1646,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1669,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1686,16 +1695,16 @@
         <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1709,16 +1718,16 @@
         <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1738,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1761,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1784,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1807,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1830,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1853,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1876,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1899,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1922,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1945,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1968,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1991,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2014,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2037,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2060,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2083,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2106,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2129,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2152,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2175,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2192,16 +2201,16 @@
         <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2215,16 +2224,16 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2238,16 +2247,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2267,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2290,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2313,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2336,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2359,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2382,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2405,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2428,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2451,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2474,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2497,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2520,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2543,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2566,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2589,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2612,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2635,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2658,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2681,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2704,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2727,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2750,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2764,24 +2773,116 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -236,7 +236,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -236,7 +236,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Madre</t>
@@ -433,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1209,19 +1233,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1232,19 +1256,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1255,19 +1279,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1278,19 +1302,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1301,19 +1325,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1324,19 +1348,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1347,19 +1371,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1370,19 +1394,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1393,19 +1417,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1440,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1463,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1486,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1509,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1532,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1555,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1578,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1601,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1647,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1670,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1716,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1739,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1762,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1785,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1808,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1831,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1854,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1877,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1900,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1923,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1946,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1969,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1992,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1991,19 +2015,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2038,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2061,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2084,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2107,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2130,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2153,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2176,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2199,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2222,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2245,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2268,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2291,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2314,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2337,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2360,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2383,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2406,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2429,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2452,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2475,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2498,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2521,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2544,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2567,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2590,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2613,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2636,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2659,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2682,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2705,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2728,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2751,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2774,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2797,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2820,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2843,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2866,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2865,24 +2889,300 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>cognome</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Nome</t>
@@ -722,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -739,13 +742,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -753,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -762,13 +765,13 @@
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -776,7 +779,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -785,13 +788,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -799,7 +802,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -808,13 +811,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -822,7 +825,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -831,13 +834,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -845,7 +848,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -854,13 +857,13 @@
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -868,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -877,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -891,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -900,13 +903,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -914,7 +917,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -923,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -946,13 +949,13 @@
         <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -960,7 +963,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -969,13 +972,13 @@
         <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -983,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -992,13 +995,13 @@
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -1006,7 +1009,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -1015,13 +1018,13 @@
         <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1029,7 +1032,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1038,13 +1041,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1052,7 +1055,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1061,13 +1064,13 @@
         <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -1075,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1084,13 +1087,13 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1098,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -1107,13 +1110,13 @@
         <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1121,7 +1124,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1130,13 +1133,13 @@
         <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1144,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -1153,13 +1156,13 @@
         <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -1167,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1176,13 +1179,13 @@
         <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -1190,7 +1193,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1199,13 +1202,13 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -1213,7 +1216,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -1222,13 +1225,13 @@
         <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1236,7 +1239,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -1245,13 +1248,13 @@
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -1259,7 +1262,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -1268,13 +1271,13 @@
         <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -1282,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -1291,13 +1294,13 @@
         <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -1305,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -1314,18 +1317,18 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>29</v>
@@ -1334,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>31</v>
@@ -1343,610 +1346,610 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
@@ -1955,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>31</v>
@@ -1969,19 +1972,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1995,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2018,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2041,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2064,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2179,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2202,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2225,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2248,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2271,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2294,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2317,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2340,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2363,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2386,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2409,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2432,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2455,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2478,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2501,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2524,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2547,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2570,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2593,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2616,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2639,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2662,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2685,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2708,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2731,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2754,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2777,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2800,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2823,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2846,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2869,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2892,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2915,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2938,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2961,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2984,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3007,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3030,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3053,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3076,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3099,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3122,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3145,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3168,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -173,13 +179,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -759,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -851,7 +857,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -1173,7 +1179,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1196,7 +1202,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1328,19 +1334,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1351,19 +1357,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1374,19 +1380,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1397,19 +1403,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1420,19 +1426,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1443,19 +1449,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1472,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1495,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1518,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1541,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1564,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1587,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1610,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1633,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1952,22 +1958,22 @@
         <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -1975,39 +1981,39 @@
         <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2573,16 +2579,16 @@
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2596,16 +2602,16 @@
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2619,16 +2625,16 @@
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2754,16 +2760,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>103</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2800,180 +2806,180 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3128,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3168,24 +3174,93 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1202,7 +1208,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1225,7 +1231,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1357,19 +1363,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1380,19 +1386,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1403,19 +1409,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1426,19 +1432,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1449,19 +1455,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1472,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2004,22 +2010,22 @@
         <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -2027,39 +2033,39 @@
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2559,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2582,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2605,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2648,16 +2654,16 @@
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2671,16 +2677,16 @@
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2694,16 +2700,16 @@
         <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2806,39 +2812,39 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>105</v>
@@ -2847,47 +2853,47 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2904,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2950,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2967,88 +2973,88 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3065,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3088,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3111,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3128,19 +3134,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3203,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3226,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3243,24 +3249,93 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1231,7 +1237,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1254,7 +1260,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1386,19 +1392,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1409,19 +1415,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1432,19 +1438,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1455,19 +1461,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1484,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1507,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1530,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1622,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1829,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1944,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2056,22 +2062,22 @@
         <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -2079,39 +2085,39 @@
         <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2266,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2312,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2381,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2427,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2450,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2496,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2519,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2588,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2680,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2703,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2723,16 +2729,16 @@
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,16 +2752,16 @@
         <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2769,16 +2775,16 @@
         <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2795,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2818,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2841,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2864,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,39 +2887,39 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>107</v>
@@ -2922,47 +2928,47 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2996,19 +3002,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3042,88 +3048,88 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3140,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3163,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3186,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3232,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3255,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3278,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3301,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3318,24 +3324,93 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="B127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,78 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -478,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -488,7 +560,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2801,7 +2873,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>97</v>
@@ -2813,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -2824,7 +2896,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>97</v>
@@ -2836,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -2847,7 +2919,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>97</v>
@@ -2859,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -2867,7 +2939,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -2876,13 +2948,13 @@
         <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -2890,22 +2962,22 @@
         <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2913,7 +2985,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -2922,13 +2994,13 @@
         <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -2951,24 +3023,24 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2979,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3071,56 +3143,56 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3129,7 +3201,7 @@
         <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3163,10 +3235,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3175,7 +3247,7 @@
         <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3186,10 +3258,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
@@ -3198,7 +3270,7 @@
         <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3209,10 +3281,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
@@ -3221,7 +3293,7 @@
         <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3232,185 +3304,461 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2867,39 +2873,39 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>100</v>
@@ -2913,7 +2919,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>101</v>
@@ -2922,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>102</v>
@@ -2936,7 +2942,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>103</v>
@@ -2945,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>104</v>
@@ -2959,7 +2965,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -2968,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>106</v>
@@ -2982,7 +2988,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>107</v>
@@ -2991,10 +2997,10 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3011,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3028,7 +3034,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>110</v>
@@ -3037,10 +3043,10 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,7 +3080,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>113</v>
@@ -3083,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
@@ -3097,7 +3103,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>115</v>
@@ -3106,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>116</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>117</v>
@@ -3129,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>118</v>
@@ -3143,39 +3149,39 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>124</v>
@@ -3189,7 +3195,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>125</v>
@@ -3198,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>126</v>
@@ -3212,19 +3218,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,16 +3241,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>129</v>
@@ -3258,16 +3264,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>131</v>
@@ -3281,7 +3287,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>132</v>
@@ -3290,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>133</v>
@@ -3304,42 +3310,42 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3356,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,19 +3379,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3396,7 +3402,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>138</v>
@@ -3405,7 +3411,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>139</v>
@@ -3419,7 +3425,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>140</v>
@@ -3428,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>141</v>
@@ -3442,7 +3448,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>142</v>
@@ -3451,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>143</v>
@@ -3465,39 +3471,39 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>124</v>
@@ -3511,7 +3517,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>125</v>
@@ -3520,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>126</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,7 +3563,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>138</v>
@@ -3566,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>139</v>
@@ -3580,7 +3586,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>140</v>
@@ -3589,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>141</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>142</v>
@@ -3612,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>143</v>
@@ -3626,19 +3632,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3649,7 +3655,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>148</v>
@@ -3658,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>149</v>
@@ -3672,19 +3678,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3695,16 +3701,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>155</v>
@@ -3718,7 +3724,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>156</v>
@@ -3727,7 +3733,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>157</v>
@@ -3741,7 +3747,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>158</v>
@@ -3750,7 +3756,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>159</v>
@@ -3759,6 +3765,29 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,12 +297,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -556,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2873,39 +2867,39 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>100</v>
@@ -2919,7 +2913,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>101</v>
@@ -2928,7 +2922,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>102</v>
@@ -2942,7 +2936,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>103</v>
@@ -2951,7 +2945,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>104</v>
@@ -2965,7 +2959,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -2974,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>106</v>
@@ -2988,7 +2982,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>107</v>
@@ -2997,10 +2991,10 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,7 +3028,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>110</v>
@@ -3043,10 +3037,10 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3080,7 +3074,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>113</v>
@@ -3089,7 +3083,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>115</v>
@@ -3112,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>116</v>
@@ -3126,7 +3120,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>117</v>
@@ -3135,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>118</v>
@@ -3149,39 +3143,39 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>124</v>
@@ -3195,7 +3189,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>125</v>
@@ -3204,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>126</v>
@@ -3218,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,16 +3235,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>129</v>
@@ -3264,16 +3258,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>131</v>
@@ -3287,7 +3281,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>132</v>
@@ -3296,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>133</v>
@@ -3310,42 +3304,42 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3350,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3373,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,7 +3396,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>138</v>
@@ -3411,7 +3405,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>139</v>
@@ -3425,7 +3419,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>140</v>
@@ -3434,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>141</v>
@@ -3448,7 +3442,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>142</v>
@@ -3457,7 +3451,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>143</v>
@@ -3471,39 +3465,39 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>124</v>
@@ -3517,7 +3511,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>125</v>
@@ -3526,7 +3520,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>126</v>
@@ -3540,19 +3534,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,7 +3557,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>138</v>
@@ -3572,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>139</v>
@@ -3586,7 +3580,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>140</v>
@@ -3595,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>141</v>
@@ -3609,7 +3603,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>142</v>
@@ -3618,7 +3612,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>143</v>
@@ -3632,19 +3626,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,7 +3649,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>148</v>
@@ -3664,7 +3658,7 @@
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>149</v>
@@ -3678,19 +3672,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3701,16 +3695,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>155</v>
@@ -3724,7 +3718,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>156</v>
@@ -3733,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>157</v>
@@ -3747,7 +3741,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>158</v>
@@ -3756,7 +3750,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>159</v>
@@ -3765,29 +3759,6 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -556,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -901,7 +913,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -924,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -970,7 +982,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
@@ -993,7 +1005,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -1338,7 +1350,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1384,7 +1396,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>30</v>
@@ -1493,19 +1505,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1516,19 +1528,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1539,19 +1551,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1562,19 +1574,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1597,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1620,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1643,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1666,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1689,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1712,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1735,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1758,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1781,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1804,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1827,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1850,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1873,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1896,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1919,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1942,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1965,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1988,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2011,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2034,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2057,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2080,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2103,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2126,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2149,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2172,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2183,111 +2195,111 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2310,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2333,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2356,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2379,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2402,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2425,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2448,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2471,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2494,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2517,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2540,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2563,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2586,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2609,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2632,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2655,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2678,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2701,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2724,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2747,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2770,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2793,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2816,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2839,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2862,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2885,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2899,22 +2911,22 @@
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
@@ -2922,22 +2934,22 @@
         <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
@@ -2945,22 +2957,22 @@
         <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -2968,22 +2980,22 @@
         <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -2991,22 +3003,22 @@
         <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
@@ -3014,39 +3026,39 @@
         <v>97</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3069,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3092,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3115,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3138,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3161,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,157 +3184,157 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,157 +3345,157 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,157 +3506,157 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3667,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3690,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3701,19 +3713,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3724,19 +3736,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3759,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3770,24 +3782,162 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_021.xlsx
@@ -41,25 +41,25 @@
     <t>Decreto del Tribunale</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.3</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.3</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -637,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -657,10 +657,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -752,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -775,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -798,7 +798,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -821,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -844,7 +844,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -867,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -890,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
@@ -913,7 +913,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -936,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>30</v>
@@ -959,7 +959,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -982,7 +982,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
@@ -1005,7 +1005,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
@@ -1028,7 +1028,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>30</v>
@@ -1051,7 +1051,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -1074,7 +1074,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -1097,7 +1097,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
@@ -1120,7 +1120,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -1143,7 +1143,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
@@ -1166,7 +1166,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
@@ -1189,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -1212,7 +1212,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>30</v>
@@ -1235,7 +1235,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>30</v>
@@ -1258,7 +1258,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>30</v>
@@ -1281,7 +1281,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>30</v>
@@ -1304,7 +1304,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1327,7 +1327,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -1350,7 +1350,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>30</v>
@@ -1373,7 +1373,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>30</v>
@@ -1396,7 +1396,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>30</v>
@@ -1419,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>30</v>
@@ -1442,7 +1442,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>30</v>
@@ -1465,7 +1465,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>30</v>
@@ -1488,7 +1488,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>30</v>
@@ -1511,7 +1511,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>30</v>
@@ -1534,7 +1534,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>96</v>
@@ -1580,7 +1580,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>96</v>
@@ -1603,7 +1603,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>96</v>
@@ -1626,7 +1626,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>96</v>
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>96</v>
@@ -1672,7 +1672,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>96</v>
@@ -1695,7 +1695,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>96</v>
@@ -1718,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>96</v>
@@ -1741,7 +1741,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>96</v>
@@ -1764,7 +1764,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>96</v>
@@ -1787,7 +1787,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>96</v>
@@ -1810,7 +1810,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>96</v>
@@ -1833,7 +1833,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>96</v>
@@ -1856,7 +1856,7 @@
         <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>96</v>
@@ -1879,7 +1879,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>96</v>
@@ -1902,7 +1902,7 @@
         <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>96</v>
@@ -1925,7 +1925,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>96</v>
@@ -1948,7 +1948,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>96</v>
@@ -1971,7 +1971,7 @@
         <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>96</v>
@@ -1994,7 +1994,7 @@
         <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>96</v>
@@ -2017,7 +2017,7 @@
         <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>96</v>
@@ -2040,7 +2040,7 @@
         <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>96</v>
@@ -2063,7 +2063,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>96</v>
@@ -2086,7 +2086,7 @@
         <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>96</v>
@@ -2109,7 +2109,7 @@
         <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>96</v>
@@ -2132,7 +2132,7 @@
         <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>96</v>
@@ -2155,7 +2155,7 @@
         <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>96</v>
@@ -2178,7 +2178,7 @@
         <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>96</v>
@@ -2201,7 +2201,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>96</v>
@@ -2224,7 +2224,7 @@
         <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>96</v>
@@ -2247,7 +2247,7 @@
         <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>96</v>
@@ -2270,7 +2270,7 @@
         <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>96</v>
@@ -2293,7 +2293,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>98</v>
@@ -2316,7 +2316,7 @@
         <v>33</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>98</v>
@@ -2339,7 +2339,7 @@
         <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>98</v>
@@ -2362,7 +2362,7 @@
         <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>98</v>
@@ -2385,7 +2385,7 @@
         <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>98</v>
@@ -2408,7 +2408,7 @@
         <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>98</v>
@@ -2431,7 +2431,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>98</v>
@@ -2454,7 +2454,7 @@
         <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>98</v>
@@ -2477,7 +2477,7 @@
         <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>98</v>
@@ -2500,7 +2500,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>98</v>
@@ -2523,7 +2523,7 @@
         <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>98</v>
@@ -2546,7 +2546,7 @@
         <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>98</v>
@@ -2569,7 +2569,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>98</v>
@@ -2592,7 +2592,7 @@
         <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>98</v>
@@ -2615,7 +2615,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>98</v>
@@ -2638,7 +2638,7 @@
         <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>98</v>
@@ -2661,7 +2661,7 @@
         <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>98</v>
@@ -2684,7 +2684,7 @@
         <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>98</v>
@@ -2707,7 +2707,7 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>98</v>
@@ -2730,7 +2730,7 @@
         <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>98</v>
@@ -2753,7 +2753,7 @@
         <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>98</v>
@@ -2776,7 +2776,7 @@
         <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>98</v>
@@ -2799,7 +2799,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>98</v>
@@ -2822,7 +2822,7 @@
         <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>98</v>
@@ -2845,7 +2845,7 @@
         <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>98</v>
@@ -2868,7 +2868,7 @@
         <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>98</v>
@@ -2891,7 +2891,7 @@
         <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>98</v>
@@ -2914,7 +2914,7 @@
         <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>98</v>
@@ -2937,7 +2937,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>98</v>
@@ -2960,7 +2960,7 @@
         <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>98</v>
@@ -2983,7 +2983,7 @@
         <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>98</v>
@@ -3006,7 +3006,7 @@
         <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>98</v>
@@ -3029,7 +3029,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>98</v>
@@ -3052,7 +3052,7 @@
         <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>103</v>
@@ -3075,7 +3075,7 @@
         <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>103</v>
@@ -3098,7 +3098,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>103</v>
@@ -3121,7 +3121,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>103</v>
@@ -3144,7 +3144,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>103</v>
@@ -3167,7 +3167,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>103</v>
@@ -3190,7 +3190,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>103</v>
@@ -3213,7 +3213,7 @@
         <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>103</v>
@@ -3236,7 +3236,7 @@
         <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>103</v>
@@ -3259,7 +3259,7 @@
         <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>103</v>
@@ -3282,7 +3282,7 @@
         <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>103</v>
@@ -3305,7 +3305,7 @@
         <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>103</v>
@@ -3328,7 +3328,7 @@
         <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>127</v>
@@ -3351,7 +3351,7 @@
         <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>127</v>
@@ -3374,7 +3374,7 @@
         <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>127</v>
@@ -3397,7 +3397,7 @@
         <v>57</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>127</v>
@@ -3420,7 +3420,7 @@
         <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>127</v>
@@ -3443,7 +3443,7 @@
         <v>136</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>127</v>
@@ -3466,7 +3466,7 @@
         <v>138</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>127</v>
@@ -3489,7 +3489,7 @@
         <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>141</v>
@@ -3512,7 +3512,7 @@
         <v>138</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>141</v>
@@ -3535,7 +3535,7 @@
         <v>126</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>141</v>
@@ -3558,7 +3558,7 @@
         <v>142</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>141</v>
@@ -3581,7 +3581,7 @@
         <v>144</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>141</v>
@@ -3604,7 +3604,7 @@
         <v>146</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>141</v>
@@ -3627,7 +3627,7 @@
         <v>148</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>141</v>
@@ -3650,7 +3650,7 @@
         <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>151</v>
@@ -3673,7 +3673,7 @@
         <v>129</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>151</v>
@@ -3696,7 +3696,7 @@
         <v>131</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>151</v>
@@ -3719,7 +3719,7 @@
         <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>151</v>
@@ -3742,7 +3742,7 @@
         <v>144</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>151</v>
@@ -3765,7 +3765,7 @@
         <v>146</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>151</v>
@@ -3788,7 +3788,7 @@
         <v>148</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>151</v>
@@ -3811,7 +3811,7 @@
         <v>152</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>151</v>
@@ -3834,7 +3834,7 @@
         <v>154</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>151</v>
@@ -3857,7 +3857,7 @@
         <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>158</v>
@@ -3880,7 +3880,7 @@
         <v>160</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>158</v>
@@ -3903,7 +3903,7 @@
         <v>162</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>158</v>
@@ -3926,7 +3926,7 @@
         <v>164</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>158</v>
